--- a/artfynd/A 60566-2022.xlsx
+++ b/artfynd/A 60566-2022.xlsx
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>450823.8016916693</v>
+        <v>450824</v>
       </c>
       <c r="R5" t="n">
-        <v>7031622.864478372</v>
+        <v>7031623</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1111,19 +1111,9 @@
           <t>2023-08-22</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
